--- a/DesignDocs/빌드 통합 관리 2.xlsx
+++ b/DesignDocs/빌드 통합 관리 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B0F3E85-6506-49A8-8FA8-18C37A284849}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280D56AB-3DB1-42CB-A470-67A079323638}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="8685" xr2:uid="{2C190873-86D0-47D2-86A6-0DC69656C6E3}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>텐지오</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +144,22 @@
   </si>
   <si>
     <t>18 구역 Mob 발주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크립트 데이터 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개자미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 리터칭 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합 / 세팅 UI 완성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,17 +210,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,13 +536,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD96AF7-7868-4C5D-92D8-0E90EE7BCFD8}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,9 +553,10 @@
     <col min="4" max="4" width="26.25" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -554,198 +572,214 @@
       <c r="F1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>43318</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>43319</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>43320</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>43321</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>43322</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>43325</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>43326</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>43327</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>43328</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>43329</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>43332</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>43333</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="C13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>43334</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="C14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>43335</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>43336</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>43339</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>43340</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>43341</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>43342</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>43343</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>43346</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -753,379 +787,379 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>43347</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>43348</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>43349</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>43350</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="4"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>43353</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="1"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>43354</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>43355</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>43356</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>43357</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>43360</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="E32" s="1"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>43361</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="E33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>43362</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="2"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>43363</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="E35" s="1"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>43364</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="2"/>
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>43367</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="E37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>43368</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>43369</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="E39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>43370</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="E40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>43371</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="E41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>43374</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="2"/>
       <c r="E42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>43375</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="E43" s="1"/>
+      <c r="C43" s="2"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43376</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="E44" s="1"/>
+      <c r="C44" s="2"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>43377</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="E45" s="1"/>
+      <c r="C45" s="2"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>43378</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="2"/>
       <c r="D46" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="1"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>43381</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="E47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>43382</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="E48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>43383</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>43384</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="E50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>43385</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="E51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>43388</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="E52" s="1"/>
+      <c r="C52" s="2"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>43389</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="E53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>43390</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="E54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>43391</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="E55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>43392</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="2"/>
       <c r="D56" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>43395</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="E57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>43396</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="E58" s="1"/>
+      <c r="C58" s="2"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>43397</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="E59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>43398</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="E60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>43399</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="E61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>43402</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>43403</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>43404</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>43405</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>43406</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="2"/>
       <c r="D66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>43409</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>43410</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>43411</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>43412</v>
       </c>
-      <c r="C70" s="4"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>43413</v>
       </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>43416</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>43417</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>43418</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>43419</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>43420</v>
       </c>
       <c r="D76" t="s">
@@ -1133,52 +1167,52 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>43423</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>43424</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>43425</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>43426</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>43427</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>43430</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>43431</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>43432</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>43433</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>43434</v>
       </c>
       <c r="D86" t="s">
@@ -1186,52 +1220,52 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>43437</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>43438</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>43439</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>43440</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>43441</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>43444</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>43445</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>43446</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>43447</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>43448</v>
       </c>
       <c r="D96" t="s">
@@ -1239,52 +1273,52 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>43451</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>43452</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>43453</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>43454</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>43455</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>43458</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>43459</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>43460</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>43461</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>43462</v>
       </c>
       <c r="D106" t="s">
@@ -1292,52 +1326,52 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>43465</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>43466</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>43467</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>43468</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>43469</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>43472</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>43473</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>43474</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>43475</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>43476</v>
       </c>
       <c r="D116" t="s">
@@ -1345,52 +1379,52 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>43479</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>43480</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>43481</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>43482</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>43483</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>43486</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>43487</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>43488</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>43489</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>43490</v>
       </c>
       <c r="D126" t="s">
@@ -1398,32 +1432,33 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>43493</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>43494</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>43495</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>43496</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="E2:E21"/>
     <mergeCell ref="E22:E41"/>
+    <mergeCell ref="F12:F16"/>
     <mergeCell ref="E42:E61"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B11"/>
@@ -1436,5 +1471,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>